--- a/apps/pczone/test/support/data/stores.xlsx
+++ b/apps/pczone/test/support/data/stores.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achilles/Projects/pczone_umbrella/apps/pczone/test/support/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31EC7E2-86DB-3841-A50B-8C0A8CC0E036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F0853F-28F5-AC44-9B99-A2F7E77DB971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{00E481DD-5042-C84D-AAA0-1B68F39F7367}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,36 +33,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>code</t>
   </si>
   <si>
+    <t>shopee</t>
+  </si>
+  <si>
+    <t>lazada</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>merchant_id</t>
+  </si>
+  <si>
+    <t>76922911</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>storexeonvn</t>
+  </si>
+  <si>
+    <t>cookie</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>pczone</t>
+  </si>
+  <si>
+    <t>thexeonstore</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>shopee</t>
-  </si>
-  <si>
-    <t>Shopee</t>
-  </si>
-  <si>
-    <t>lazada</t>
-  </si>
-  <si>
-    <t>Lazada</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>merchant_id</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>76922911</t>
   </si>
 </sst>
 </file>
@@ -412,58 +430,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F36CF2-D14A-EA4F-90DA-FF7558EFFE94}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
+      <c r="C2" t="str">
+        <f>B2&amp;":"&amp;A2</f>
+        <v>shopee:storexeonvn</v>
+      </c>
+      <c r="G2">
+        <v>1.05</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">B3&amp;":"&amp;A3</f>
+        <v>lazada:thexeonstore</v>
+      </c>
+      <c r="G3">
         <v>1.05</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>lazada:pczone</v>
+      </c>
+      <c r="G4">
         <v>1.05</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
